--- a/NT visitor data YE December.xlsx
+++ b/NT visitor data YE December.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tl/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tl/Desktop/Feel-Freshie-in-NT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71610241-DC0A-C14E-9E80-86034F3FDC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD62A6D-E4E9-264C-8991-958179160FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="740" windowWidth="22420" windowHeight="18100" xr2:uid="{EA194F86-B46F-8C4D-8FC1-2E023E8C22EA}"/>
+    <workbookView xWindow="-26920" yWindow="1400" windowWidth="26620" windowHeight="19700" xr2:uid="{EA194F86-B46F-8C4D-8FC1-2E023E8C22EA}"/>
   </bookViews>
   <sheets>
     <sheet name="NT Visitor YE December" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="15">
   <si>
     <t>Visitors (‘000)</t>
   </si>
@@ -81,21 +81,6 @@
   </si>
   <si>
     <t>Visitor Type</t>
-  </si>
-  <si>
-    <t>Intra Territory</t>
-  </si>
-  <si>
-    <t>Holiday***</t>
-  </si>
-  <si>
-    <t>Visiting friends/relatives***</t>
-  </si>
-  <si>
-    <t>Business***</t>
-  </si>
-  <si>
-    <t>All other reasons***</t>
   </si>
 </sst>
 </file>
@@ -508,7 +493,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I19" sqref="I19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,7 +932,7 @@
         <v>2022</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -967,7 +952,7 @@
         <v>2022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -987,7 +972,7 @@
         <v>2022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -1007,7 +992,7 @@
         <v>2022</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1027,7 +1012,7 @@
         <v>2022</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -1552,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="4"/>
@@ -1566,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="4"/>
@@ -1580,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="4"/>
@@ -1594,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="4"/>
